--- a/input_data/admin_data/CHL/gpinter_CHL_2021.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2021.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>year</t>
   </si>
@@ -201,6 +201,63 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -387,10 +444,124 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -635,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J81"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -643,31 +814,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
@@ -675,31 +846,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D2">
-        <v>1629050.4417849099</v>
+        <v>4644475.5531022102</v>
       </c>
       <c r="E2">
-        <v>0.66000000000000003</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="F2">
-        <v>18036.529125819499</v>
+        <v>80549.030635841904</v>
       </c>
       <c r="G2">
-        <v>0.99998966565764102</v>
+        <v>0.999927966572973</v>
       </c>
       <c r="H2">
-        <v>4791275.3135880297</v>
+        <v>8762530.18039882</v>
       </c>
       <c r="I2">
-        <v>68049.017507025899</v>
+        <v>130675.82574411901</v>
       </c>
       <c r="J2">
-        <v>265.642867325802</v>
+        <v>108.785048202675</v>
       </c>
     </row>
     <row r="3">
@@ -707,29 +878,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.67000000000000004</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="F3">
-        <v>119525.541934287</v>
+        <v>181710.94760093899</v>
       </c>
       <c r="G3">
-        <v>0.99957194367824997</v>
+        <v>0.99964660902409597</v>
       </c>
       <c r="H3">
-        <v>4934403.3831662396</v>
+        <v>8928527.3795267902</v>
       </c>
       <c r="I3">
-        <v>174029.46584644099</v>
+        <v>234588.60348548699</v>
       </c>
       <c r="J3">
-        <v>41.283254635892803</v>
+        <v>49.1358803495704</v>
       </c>
     </row>
     <row r="4">
@@ -737,29 +908,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.68000000000000005</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="F4">
-        <v>230097.64631624299</v>
+        <v>288400.34003625298</v>
       </c>
       <c r="G4">
-        <v>0.99850365591144696</v>
+        <v>0.99914151732794398</v>
       </c>
       <c r="H4">
-        <v>5083165.0680824798</v>
+        <v>9098996.7672923096</v>
       </c>
       <c r="I4">
-        <v>289398.04783613601</v>
+        <v>344105.42504879303</v>
       </c>
       <c r="J4">
-        <v>22.091338827065901</v>
+        <v>31.549882244065799</v>
       </c>
     </row>
     <row r="5">
@@ -767,29 +938,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>350367.24407928297</v>
+        <v>400769.61002957798</v>
       </c>
       <c r="G5">
-        <v>0.99672717287315005</v>
+        <v>0.99840062544227304</v>
       </c>
       <c r="H5">
-        <v>5237802.7138968799</v>
+        <v>9274094.5941371806</v>
       </c>
       <c r="I5">
-        <v>414781.75743246102</v>
+        <v>459376.27557956398</v>
       </c>
       <c r="J5">
-        <v>14.9494646043785</v>
+        <v>23.1407131729692</v>
       </c>
     </row>
     <row r="6">
@@ -797,29 +968,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.69999999999999996</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F6">
-        <v>480973.52799330099</v>
+        <v>518966.10794739402</v>
       </c>
       <c r="G6">
-        <v>0.99418101624844801</v>
+        <v>0.99741154439248103</v>
       </c>
       <c r="H6">
-        <v>5398570.0791123603</v>
+        <v>9453986.8047199901</v>
       </c>
       <c r="I6">
-        <v>550831.02501314995</v>
+        <v>580545.41080220602</v>
       </c>
       <c r="J6">
-        <v>11.224256149056799</v>
+        <v>18.216963805425099</v>
       </c>
     </row>
     <row r="7">
@@ -827,29 +998,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.70999999999999996</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F7">
-        <v>622577.58986780699</v>
+        <v>643130.75251377898</v>
       </c>
       <c r="G7">
-        <v>0.99079971502606401</v>
+        <v>0.99616157460759502</v>
       </c>
       <c r="H7">
-        <v>5565733.49477096</v>
+        <v>9638850.1670932807</v>
       </c>
       <c r="I7">
-        <v>698216.23274838098</v>
+        <v>707749.90187658602</v>
       </c>
       <c r="J7">
-        <v>8.9398230603718591</v>
+        <v>14.987388069095299</v>
       </c>
     </row>
     <row r="8">
@@ -857,29 +1028,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.71999999999999997</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F8">
-        <v>775858.29718185298</v>
+        <v>773396.49880374502</v>
       </c>
       <c r="G8">
-        <v>0.98651368302337605</v>
+        <v>0.99463772138932605</v>
       </c>
       <c r="H8">
-        <v>5739573.3969860496</v>
+        <v>9828873.5769915003</v>
       </c>
       <c r="I8">
-        <v>857622.85063468502</v>
+        <v>841118.02338893397</v>
       </c>
       <c r="J8">
-        <v>7.3977083416312999</v>
+        <v>12.708712273968599</v>
       </c>
     </row>
     <row r="9">
@@ -887,29 +1058,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.72999999999999998</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F9">
-        <v>941506.63233834703</v>
+        <v>909886.64475289895</v>
       </c>
       <c r="G9">
-        <v>0.98124912626910499</v>
+        <v>0.99282671385193599</v>
       </c>
       <c r="H9">
-        <v>5920386.38018425</v>
+        <v>10024259.567287199</v>
       </c>
       <c r="I9">
-        <v>1029744.8548255099</v>
+        <v>980767.47557549097</v>
       </c>
       <c r="J9">
-        <v>6.2882046465039103</v>
+        <v>11.0170422053063</v>
       </c>
     </row>
     <row r="10">
@@ -917,29 +1088,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.73999999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F10">
-        <v>1120218.1216485</v>
+        <v>1052712.9677806101</v>
       </c>
       <c r="G10">
-        <v>0.97492799078789005</v>
+        <v>0.990715027689824</v>
       </c>
       <c r="H10">
-        <v>6108487.97731343</v>
+        <v>10225226.0582141</v>
       </c>
       <c r="I10">
-        <v>1215276.01636397</v>
+        <v>1126803.4330863501</v>
       </c>
       <c r="J10">
-        <v>5.4529451535065903</v>
+        <v>9.7132137355271109</v>
       </c>
     </row>
     <row r="11">
@@ -947,29 +1118,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.75</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F11">
-        <v>1312682.90082032</v>
+        <v>1201973.68478773</v>
       </c>
       <c r="G11">
-        <v>0.96746796385936595</v>
+        <v>0.98828891214630699</v>
       </c>
       <c r="H11">
-        <v>6304216.4557514098</v>
+        <v>10432008.390603401</v>
       </c>
       <c r="I11">
-        <v>1414898.56063718</v>
+        <v>1279316.41481639</v>
       </c>
       <c r="J11">
-        <v>4.8025432888718296</v>
+        <v>8.6790655424753904</v>
       </c>
     </row>
     <row r="12">
@@ -977,29 +1148,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.76000000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F12">
-        <v>1519572.86802188</v>
+        <v>1357751.2313709699</v>
       </c>
       <c r="G12">
-        <v>0.95878254489169501</v>
+        <v>0.98553442156886895</v>
       </c>
       <c r="H12">
-        <v>6507938.0347145004</v>
+        <v>10644861.6923659</v>
       </c>
       <c r="I12">
-        <v>1629268.5936634401</v>
+        <v>1438379.9723781</v>
       </c>
       <c r="J12">
-        <v>4.2827416648905201</v>
+        <v>7.8400677873938802</v>
       </c>
     </row>
     <row r="13">
@@ -1007,29 +1178,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.77000000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F13">
-        <v>1741525.2627314699</v>
+        <v>1520109.8599314601</v>
       </c>
       <c r="G13">
-        <v>0.94878120575649705</v>
+        <v>0.98243745194133503</v>
       </c>
       <c r="H13">
-        <v>6720054.0973688904</v>
+        <v>10864063.6380799</v>
       </c>
       <c r="I13">
-        <v>1858997.56943023</v>
+        <v>1604048.1995644199</v>
       </c>
       <c r="J13">
-        <v>3.8587175513198799</v>
+        <v>7.1468937373840502</v>
       </c>
     </row>
     <row r="14">
@@ -1037,29 +1208,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.78000000000000003</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F14">
-        <v>1979121.8775643399</v>
+        <v>1689093.0619065601</v>
       </c>
       <c r="G14">
-        <v>0.93736966488736795</v>
+        <v>0.97898378277842402</v>
       </c>
       <c r="H14">
-        <v>6941011.2122751996</v>
+        <v>11089917.673165601</v>
       </c>
       <c r="I14">
-        <v>2104628.93264496</v>
+        <v>1776353.0716869901</v>
       </c>
       <c r="J14">
-        <v>3.5071166111393501</v>
+        <v>6.5656048936983504</v>
       </c>
     </row>
     <row r="15">
@@ -1067,29 +1238,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.79000000000000004</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F15">
-        <v>2232862.96194513</v>
+        <v>1864720.82725149</v>
       </c>
       <c r="G15">
-        <v>0.924450304757923</v>
+        <v>0.97515912474894895</v>
       </c>
       <c r="H15">
-        <v>7171315.1303528296</v>
+        <v>11322756.788202601</v>
       </c>
       <c r="I15">
-        <v>2366608.9160560002</v>
+        <v>1955301.6332340001</v>
       </c>
       <c r="J15">
-        <v>3.2117130574397801</v>
+        <v>6.0720921988584298</v>
       </c>
     </row>
     <row r="16">
@@ -1097,29 +1268,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.80000000000000004</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F16">
-        <v>2503134.7157608001</v>
+        <v>2046986.7654134899</v>
       </c>
       <c r="G16">
-        <v>0.90992276862182297</v>
+        <v>0.970949173354269</v>
       </c>
       <c r="H16">
-        <v>7411550.4410676695</v>
+        <v>11562947.9460223</v>
       </c>
       <c r="I16">
-        <v>2645250.3095026999</v>
+        <v>2140873.0653620702</v>
       </c>
       <c r="J16">
-        <v>2.9609075350205498</v>
+        <v>5.64876536643684</v>
       </c>
     </row>
     <row r="17">
@@ -1127,29 +1298,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.81000000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="F17">
-        <v>2790169.1110880198</v>
+        <v>2235855.1275841598</v>
       </c>
       <c r="G17">
-        <v>0.89368477965811499</v>
+        <v>0.966339668920702</v>
       </c>
       <c r="H17">
-        <v>7662408.3427289799</v>
+        <v>11810897.284987001</v>
       </c>
       <c r="I17">
-        <v>2940687.8694989998</v>
+        <v>2333015.6832825998</v>
       </c>
       <c r="J17">
-        <v>2.7462164613172999</v>
+        <v>5.2824966784626604</v>
       </c>
     </row>
     <row r="18">
@@ -1157,29 +1328,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="F18">
-        <v>3093994.6503748298</v>
+        <v>2431257.7916686898</v>
       </c>
       <c r="G18">
-        <v>0.87563323383687597</v>
+        <v>0.96131646305685703</v>
       </c>
       <c r="H18">
-        <v>7924726.1467973199</v>
+        <v>12067056.2471953</v>
       </c>
       <c r="I18">
-        <v>3252823.9476638599</v>
+        <v>2531643.9392156899</v>
       </c>
       <c r="J18">
-        <v>2.5613250966149099</v>
+        <v>4.9632977171511996</v>
       </c>
     </row>
     <row r="19">
@@ -1187,29 +1358,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.82999999999999996</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F19">
-        <v>3414376.6329949298</v>
+        <v>2633091.3015483301</v>
       </c>
       <c r="G19">
-        <v>0.85566562654719802</v>
+        <v>0.95586559156389705</v>
       </c>
       <c r="H19">
-        <v>8199543.9232169297</v>
+        <v>12331928.8113058</v>
       </c>
       <c r="I19">
-        <v>3581262.97674633</v>
+        <v>2736635.5423065899</v>
       </c>
       <c r="J19">
-        <v>2.40147611250041</v>
+        <v>4.6834413998687703</v>
       </c>
     </row>
     <row r="20">
@@ -1217,29 +1388,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.83999999999999997</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F20">
-        <v>3750745.6896703602</v>
+        <v>2841214.0941848001</v>
       </c>
       <c r="G20">
-        <v>0.833681881385676</v>
+        <v>0.94997335354688595</v>
       </c>
       <c r="H20">
-        <v>8488186.4823713396</v>
+        <v>12606080.047562901</v>
       </c>
       <c r="I20">
-        <v>3925233.8567906599</v>
+        <v>2947828.8566907002</v>
       </c>
       <c r="J20">
-        <v>2.2630663832389399</v>
+        <v>4.4368638299254499</v>
       </c>
     </row>
     <row r="21">
@@ -1247,29 +1418,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.84999999999999998</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F21">
-        <v>4102114.0281024701</v>
+        <v>3055444.1067056898</v>
       </c>
       <c r="G21">
-        <v>0.80958665538094998</v>
+        <v>0.94362639612836396</v>
       </c>
       <c r="H21">
-        <v>8792383.3240767196</v>
+        <v>12890146.2590592</v>
       </c>
       <c r="I21">
-        <v>4283500.4359411597</v>
+        <v>3165020.8086494999</v>
       </c>
       <c r="J21">
-        <v>2.1433785759836201</v>
+        <v>4.21874719644505</v>
       </c>
     </row>
     <row r="22">
@@ -1277,29 +1448,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.85999999999999999</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F22">
-        <v>4466980.5888248803</v>
+        <v>3275557.0376978</v>
       </c>
       <c r="G22">
-        <v>0.783292193735872</v>
+        <v>0.93681180366800398</v>
       </c>
       <c r="H22">
-        <v>9114446.3875149693</v>
+        <v>13184847.030283701</v>
       </c>
       <c r="I22">
-        <v>4654263.0474418905</v>
+        <v>3387965.63143929</v>
       </c>
       <c r="J22">
-        <v>2.0404042968793599</v>
+        <v>4.0252228486763304</v>
       </c>
     </row>
     <row r="23">
@@ -1307,29 +1478,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.87</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F23">
-        <v>4843230.3874720996</v>
+        <v>3501285.6524835699</v>
       </c>
       <c r="G23">
-        <v>0.754721788989274</v>
+        <v>0.92951718968478203</v>
       </c>
       <c r="H23">
-        <v>9457537.4136744402</v>
+        <v>13490999.5739976</v>
       </c>
       <c r="I23">
-        <v>5035060.3666540198</v>
+        <v>3616374.9147128202</v>
       </c>
       <c r="J23">
-        <v>1.9527333323102101</v>
+        <v>3.8531559298590801</v>
       </c>
     </row>
     <row r="24">
@@ -1337,29 +1508,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.88</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F24">
-        <v>5228042.52999127</v>
+        <v>3732320.6857342198</v>
       </c>
       <c r="G24">
-        <v>0.72381384263288495</v>
+        <v>0.92173078867272895</v>
       </c>
       <c r="H24">
-        <v>9826077.1675928105</v>
+        <v>13809535.8533294</v>
       </c>
       <c r="I24">
-        <v>5422695.1153163202</v>
+        <v>3849919.6213749</v>
       </c>
       <c r="J24">
-        <v>1.87949449745758</v>
+        <v>3.6999864202753501</v>
       </c>
     </row>
     <row r="25">
@@ -1367,29 +1538,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.89000000000000001</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F25">
-        <v>5617842.3411700698</v>
+        <v>3968314.1278893901</v>
       </c>
       <c r="G25">
-        <v>0.69052638279600698</v>
+        <v>0.91344154357420904</v>
       </c>
       <c r="H25">
-        <v>10226384.6268907</v>
+        <v>14141523.0610612</v>
       </c>
       <c r="I25">
-        <v>5813240.0799730401</v>
+        <v>4088235.0156296599</v>
       </c>
       <c r="J25">
-        <v>1.8203402669290201</v>
+        <v>3.5636097862501099</v>
       </c>
     </row>
     <row r="26">
@@ -1397,29 +1568,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.90000000000000002</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F26">
-        <v>6008382.1215130398</v>
+        <v>4208886.01651322</v>
       </c>
       <c r="G26">
-        <v>0.65484154498580605</v>
+        <v>0.90463918264263099</v>
       </c>
       <c r="H26">
-        <v>10667699.081582399</v>
+        <v>14488188.1660761</v>
       </c>
       <c r="I26">
-        <v>6202260.0122680804</v>
+        <v>4330929.8504013997</v>
       </c>
       <c r="J26">
-        <v>1.7754694801095801</v>
+        <v>3.4422857043960899</v>
       </c>
     </row>
     <row r="27">
@@ -1427,29 +1598,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.91000000000000003</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F27">
-        <v>6395155.3933205297</v>
+        <v>4453636.3380962601</v>
       </c>
       <c r="G27">
-        <v>0.616768690682582</v>
+        <v>0.89531427652377205</v>
       </c>
       <c r="H27">
-        <v>11163858.9781729</v>
+        <v>14850947.3916359</v>
       </c>
       <c r="I27">
-        <v>6585585.6905672597</v>
+        <v>4577601.7508014599</v>
       </c>
       <c r="J27">
-        <v>1.7456743881209</v>
+        <v>3.3345666920761698</v>
       </c>
     </row>
     <row r="28">
@@ -1457,29 +1628,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.92000000000000004</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F28">
-        <v>6774663.30137375</v>
+        <v>4702164.3530911095</v>
       </c>
       <c r="G28">
-        <v>0.576342774322671</v>
+        <v>0.885458262215022</v>
       </c>
       <c r="H28">
-        <v>11736143.1391236</v>
+        <v>15231441.674629699</v>
       </c>
       <c r="I28">
-        <v>6961523.0731387697</v>
+        <v>4827861.5936452998</v>
       </c>
       <c r="J28">
-        <v>1.7323581434288899</v>
+        <v>3.2392405987716901</v>
       </c>
     </row>
     <row r="29">
@@ -1487,29 +1658,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.93000000000000005</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F29">
-        <v>7147935.7114498802</v>
+        <v>4954098.6995648602</v>
       </c>
       <c r="G29">
-        <v>0.53360914929439196</v>
+        <v>0.87506341453319803</v>
       </c>
       <c r="H29">
-        <v>12418231.719978601</v>
+        <v>15631579.3700522</v>
       </c>
       <c r="I29">
-        <v>7337006.1681759702</v>
+        <v>5081370.9627019204</v>
       </c>
       <c r="J29">
-        <v>1.7373172089511899</v>
+        <v>3.1552821851177901</v>
       </c>
     </row>
     <row r="30">
@@ -1517,29 +1688,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93999999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="F30">
-        <v>7530447.1483363099</v>
+        <v>5209143.1833542399</v>
       </c>
       <c r="G30">
-        <v>0.48857060426237398</v>
+        <v>0.86412273693762298</v>
       </c>
       <c r="H30">
-        <v>13265102.6452791</v>
+        <v>16053587.706346201</v>
       </c>
       <c r="I30">
-        <v>7745589.26116098</v>
+        <v>5337898.6754042497</v>
       </c>
       <c r="J30">
-        <v>1.7615292138674301</v>
+        <v>3.0818096453261901</v>
       </c>
     </row>
     <row r="31">
@@ -1547,29 +1718,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.94999999999999996</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F31">
-        <v>7982092.5986587098</v>
+        <v>5467145.4993166896</v>
       </c>
       <c r="G31">
-        <v>0.44102395338841799</v>
+        <v>0.85262973064579595</v>
       </c>
       <c r="H31">
-        <v>14369005.322102699</v>
+        <v>16500074.749302199</v>
       </c>
       <c r="I31">
-        <v>8305555.2849302702</v>
+        <v>5597405.2783637699</v>
       </c>
       <c r="J31">
-        <v>1.8001551779187801</v>
+        <v>3.0180420022412799</v>
       </c>
     </row>
     <row r="32">
@@ -1577,29 +1748,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.95999999999999996</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F32">
-        <v>8709065.4576289896</v>
+        <v>5728199.6852791104</v>
       </c>
       <c r="G32">
-        <v>0.39003992568802398</v>
+        <v>0.84057798182213195</v>
       </c>
       <c r="H32">
-        <v>15884867.831395799</v>
+        <v>16974103.856734298</v>
       </c>
       <c r="I32">
-        <v>9390665.0340428203</v>
+        <v>5860168.8535654303</v>
       </c>
       <c r="J32">
-        <v>1.82394631303189</v>
+        <v>2.9632528175224002</v>
       </c>
     </row>
     <row r="33">
@@ -1607,29 +1778,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.96999999999999997</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F33">
-        <v>10253093.2149326</v>
+        <v>5992798.5894802297</v>
       </c>
       <c r="G33">
-        <v>0.33239490259252302</v>
+        <v>0.82796047789394001</v>
       </c>
       <c r="H33">
-        <v>18049602.097180098</v>
+        <v>17479282.7205147</v>
       </c>
       <c r="I33">
-        <v>11506384.4257835</v>
+        <v>6126972.3689392302</v>
       </c>
       <c r="J33">
-        <v>1.76040553994892</v>
+        <v>2.9167145298688699</v>
       </c>
     </row>
     <row r="34">
@@ -1637,29 +1808,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.97999999999999998</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F34">
-        <v>12952327.1490374</v>
+        <v>6262061.1774508404</v>
       </c>
       <c r="G34">
-        <v>0.26176244008156302</v>
+        <v>0.81476852048370796</v>
       </c>
       <c r="H34">
-        <v>21321210.932878301</v>
+        <v>18019868.927732501</v>
       </c>
       <c r="I34">
-        <v>14691647.358967301</v>
+        <v>6399383.6290198099</v>
       </c>
       <c r="J34">
-        <v>1.64612974082135</v>
+        <v>2.8776258195337698</v>
       </c>
     </row>
     <row r="35">
@@ -1667,29 +1838,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.98999999999999999</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F35">
-        <v>16575446.9594464</v>
+        <v>6538073.00270411</v>
       </c>
       <c r="G35">
-        <v>0.171577096631608</v>
+        <v>0.80099003558083104</v>
       </c>
       <c r="H35">
-        <v>27950774.506789401</v>
+        <v>18600893.1926682</v>
       </c>
       <c r="I35">
-        <v>16813998.208302401</v>
+        <v>6680176.0973741598</v>
       </c>
       <c r="J35">
-        <v>1.68627576530358</v>
+        <v>2.8450115477411999</v>
       </c>
     </row>
     <row r="36">
@@ -1697,29 +1868,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.99099999999999999</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F36">
-        <v>17068562.3681655</v>
+        <v>6824399.7698871596</v>
       </c>
       <c r="G36">
-        <v>0.161255747594755</v>
+        <v>0.78660697764243304</v>
       </c>
       <c r="H36">
-        <v>29188194.0955102</v>
+        <v>19228299.3555784</v>
       </c>
       <c r="I36">
-        <v>17369494.394851901</v>
+        <v>6973966.6136910003</v>
       </c>
       <c r="J36">
-        <v>1.7100558011815199</v>
+        <v>2.8175810333421198</v>
       </c>
     </row>
     <row r="37">
@@ -1727,29 +1898,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99199999999999999</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F37">
-        <v>17703199.501650199</v>
+        <v>7126868.9560235897</v>
       </c>
       <c r="G37">
-        <v>0.15059340470510099</v>
+        <v>0.77159136062829503</v>
       </c>
       <c r="H37">
-        <v>30665531.5580924</v>
+        <v>19909095.619016599</v>
       </c>
       <c r="I37">
-        <v>18132475.314024501</v>
+        <v>7288191.3514512796</v>
       </c>
       <c r="J37">
-        <v>1.7322027894016501</v>
+        <v>2.7935262654422099</v>
       </c>
     </row>
     <row r="38">
@@ -1757,29 +1928,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99299999999999999</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F38">
-        <v>18629895.913877599</v>
+        <v>7454772.0151966503</v>
       </c>
       <c r="G38">
-        <v>0.139462702518767</v>
+        <v>0.75589918770559905</v>
       </c>
       <c r="H38">
-        <v>32455968.1643879</v>
+        <v>20651501.752402801</v>
       </c>
       <c r="I38">
-        <v>19328348.974841099</v>
+        <v>7634616.3132698098</v>
       </c>
       <c r="J38">
-        <v>1.7421443637917</v>
+        <v>2.7702392119174699</v>
       </c>
     </row>
     <row r="39">
@@ -1787,29 +1958,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99399999999999999</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F39">
-        <v>20166614.915566001</v>
+        <v>7822735.3915624097</v>
       </c>
       <c r="G39">
-        <v>0.127597907863505</v>
+        <v>0.73946112871275904</v>
       </c>
       <c r="H39">
-        <v>34643904.695978999</v>
+        <v>21465057.092348602</v>
       </c>
       <c r="I39">
-        <v>21297777.475242302</v>
+        <v>8031703.9767777398</v>
       </c>
       <c r="J39">
-        <v>1.71788398008425</v>
+        <v>2.7439323993370301</v>
       </c>
     </row>
     <row r="40">
@@ -1817,29 +1988,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.995</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F40">
-        <v>22557033.294807799</v>
+        <v>8253669.2593556903</v>
       </c>
       <c r="G40">
-        <v>0.114524170593647</v>
+        <v>0.72216810200834902</v>
       </c>
       <c r="H40">
-        <v>37313130.140126303</v>
+        <v>22360613.96672</v>
       </c>
       <c r="I40">
-        <v>23991082.446431302</v>
+        <v>8508368.8837860208</v>
       </c>
       <c r="J40">
-        <v>1.6541683319993601</v>
+        <v>2.70917252243586</v>
       </c>
     </row>
     <row r="41">
@@ -1847,29 +2018,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.996</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F41">
-        <v>25454703.135299299</v>
+        <v>8783474.2609641291</v>
       </c>
       <c r="G41">
-        <v>0.099797135855456395</v>
+        <v>0.70384877017743197</v>
       </c>
       <c r="H41">
-        <v>40643642.0635501</v>
+        <v>23350060.044072401</v>
       </c>
       <c r="I41">
-        <v>26809330.6011566</v>
+        <v>9106610.6610927805</v>
       </c>
       <c r="J41">
-        <v>1.59670461869137</v>
+        <v>2.65840820503632</v>
       </c>
     </row>
     <row r="42">
@@ -1877,29 +2048,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.997</v>
+        <v>0.87</v>
       </c>
       <c r="F42">
-        <v>28018130.609046999</v>
+        <v>9454833.2353656106</v>
       </c>
       <c r="G42">
-        <v>0.083340106709212006</v>
+        <v>0.68424136659230606</v>
       </c>
       <c r="H42">
-        <v>45255079.217681199</v>
+        <v>24445709.9966093</v>
       </c>
       <c r="I42">
-        <v>28957544.349352401</v>
+        <v>9852204.5816028994</v>
       </c>
       <c r="J42">
-        <v>1.6152069475708899</v>
+        <v>2.5855252428113298</v>
       </c>
     </row>
     <row r="43">
@@ -1907,29 +2078,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.998</v>
+        <v>0.88</v>
       </c>
       <c r="F43">
-        <v>30108814.150885701</v>
+        <v>10273362.725034701</v>
       </c>
       <c r="G43">
-        <v>0.065564386813378506</v>
+        <v>0.66302862799790796</v>
       </c>
       <c r="H43">
-        <v>53403846.651845597</v>
+        <v>25661835.447859801</v>
       </c>
       <c r="I43">
-        <v>35703320.6374318</v>
+        <v>10739555.519323399</v>
       </c>
       <c r="J43">
-        <v>1.77369478532833</v>
+        <v>2.4979002625231601</v>
       </c>
     </row>
     <row r="44">
@@ -1937,29 +2108,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F44">
-        <v>42898054.289518498</v>
+        <v>11226632.296006201</v>
       </c>
       <c r="G44">
-        <v>0.0436477415569477</v>
+        <v>0.63990533798047999</v>
       </c>
       <c r="H44">
-        <v>71104372.666259393</v>
+        <v>27018406.350453999</v>
       </c>
       <c r="I44">
-        <v>43168235.637642302</v>
+        <v>11751026.8994273</v>
       </c>
       <c r="J44">
-        <v>1.6575197603690099</v>
+        <v>2.4066350120031701</v>
       </c>
     </row>
     <row r="45">
@@ -1967,29 +2138,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.99909999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F45">
-        <v>43388551.380781397</v>
+        <v>12291449.1718296</v>
       </c>
       <c r="G45">
-        <v>0.040997839839334901</v>
+        <v>0.61460425335838897</v>
       </c>
       <c r="H45">
-        <v>74208387.891660899</v>
+        <v>28545144.295556702</v>
       </c>
       <c r="I45">
-        <v>43639280.459493898</v>
+        <v>12857558.279012</v>
       </c>
       <c r="J45">
-        <v>1.7103218598012699</v>
+        <v>2.32235791699636</v>
       </c>
     </row>
     <row r="46">
@@ -1997,29 +2168,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99919999999999998</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F46">
-        <v>44011552.322141297</v>
+        <v>13433061.2088969</v>
       </c>
       <c r="G46">
-        <v>0.038319022821755401</v>
+        <v>0.58692070086251202</v>
       </c>
       <c r="H46">
-        <v>78029526.320681393</v>
+        <v>30288209.408506099</v>
       </c>
       <c r="I46">
-        <v>45040082.822037697</v>
+        <v>14020443.582655599</v>
       </c>
       <c r="J46">
-        <v>1.77293283703211</v>
+        <v>2.2547510904250099</v>
       </c>
     </row>
     <row r="47">
@@ -2027,29 +2198,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99929999999999997</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F47">
-        <v>46677366.740243301</v>
+        <v>14610778.3526076</v>
       </c>
       <c r="G47">
-        <v>0.035554216916010503</v>
+        <v>0.55673334510543204</v>
       </c>
       <c r="H47">
-        <v>82742303.963343903</v>
+        <v>32321680.136737399</v>
       </c>
       <c r="I47">
-        <v>49412555.939236604</v>
+        <v>15205362.740747301</v>
       </c>
       <c r="J47">
-        <v>1.77264292614876</v>
+        <v>2.2121805804390302</v>
       </c>
     </row>
     <row r="48">
@@ -2057,29 +2228,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99939999999999996</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F48">
-        <v>52343199.292265899</v>
+        <v>15804326.4372565</v>
       </c>
       <c r="G48">
-        <v>0.0325210047654345</v>
+        <v>0.52399474509150601</v>
       </c>
       <c r="H48">
-        <v>88297261.967360601</v>
+        <v>34766868.336164601</v>
       </c>
       <c r="I48">
-        <v>54827582.012181401</v>
+        <v>16435787.1494151</v>
       </c>
       <c r="J48">
-        <v>1.6868908122016</v>
+        <v>2.1998323354171201</v>
       </c>
     </row>
     <row r="49">
@@ -2087,29 +2258,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99950000000000006</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F49">
-        <v>56762819.439704001</v>
+        <v>17107435.6477139</v>
       </c>
       <c r="G49">
-        <v>0.0291553887841331</v>
+        <v>0.48860692366474201</v>
       </c>
       <c r="H49">
-        <v>94991197.958395198</v>
+        <v>37822048.5339562</v>
       </c>
       <c r="I49">
-        <v>58073146.269746602</v>
+        <v>17979097.596115898</v>
       </c>
       <c r="J49">
-        <v>1.6734756817233001</v>
+        <v>2.2108543508687899</v>
       </c>
     </row>
     <row r="50">
@@ -2117,29 +2288,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99960000000000004</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F50">
-        <v>60112198.388121903</v>
+        <v>19055316.169590998</v>
       </c>
       <c r="G50">
-        <v>0.0255905423693032</v>
+        <v>0.44989620726511098</v>
       </c>
       <c r="H50">
-        <v>104220710.880555</v>
+        <v>41790638.721524298</v>
       </c>
       <c r="I50">
-        <v>64864482.502332002</v>
+        <v>20882564.809974801</v>
       </c>
       <c r="J50">
-        <v>1.73376974516288</v>
+        <v>2.19312229456549</v>
       </c>
     </row>
     <row r="51">
@@ -2147,29 +2318,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99970000000000003</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F51">
-        <v>70578181.516112</v>
+        <v>23145945.158562198</v>
       </c>
       <c r="G51">
-        <v>0.021608806700558199</v>
+        <v>0.40493404830611601</v>
       </c>
       <c r="H51">
-        <v>117339453.67331</v>
+        <v>47017657.199411601</v>
       </c>
       <c r="I51">
-        <v>76756389.743093595</v>
+        <v>25978627.568390701</v>
       </c>
       <c r="J51">
-        <v>1.66254572096793</v>
+        <v>2.0313561134494802</v>
       </c>
     </row>
     <row r="52">
@@ -2177,29 +2348,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99980000000000002</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F52">
-        <v>82900513.499293596</v>
+        <v>28884443.7682673</v>
       </c>
       <c r="G52">
-        <v>0.016897080913910002</v>
+        <v>0.34899957891045202</v>
       </c>
       <c r="H52">
-        <v>137630985.63841799</v>
+        <v>54030667.076418497</v>
       </c>
       <c r="I52">
-        <v>90874465.203490406</v>
+        <v>31773739.934991799</v>
       </c>
       <c r="J52">
-        <v>1.6601946095254401</v>
+        <v>1.87058014722018</v>
       </c>
     </row>
     <row r="53">
@@ -2207,29 +2378,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99990000000000001</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F53">
-        <v>102256205.645537</v>
+        <v>35210587.6171422</v>
       </c>
       <c r="G53">
-        <v>0.0113187106638206</v>
+        <v>0.280587678424144</v>
       </c>
       <c r="H53">
-        <v>184387506.073347</v>
+        <v>65159130.647131898</v>
       </c>
       <c r="I53">
-        <v>104201546.11658099</v>
+        <v>42259233.327737302</v>
       </c>
       <c r="J53">
-        <v>1.80319135556927</v>
+        <v>1.8505550476927899</v>
       </c>
     </row>
     <row r="54">
@@ -2237,29 +2408,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990999999999997</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F54">
-        <v>106296306.67484801</v>
+        <v>49982061.786603197</v>
       </c>
       <c r="G54">
-        <v>0.010679064748363699</v>
+        <v>0.18959950797396</v>
       </c>
       <c r="H54">
-        <v>193297057.17961001</v>
+        <v>88059027.966526493</v>
       </c>
       <c r="I54">
-        <v>108747448.343018</v>
+        <v>51974506.247437797</v>
       </c>
       <c r="J54">
-        <v>1.8184738795383599</v>
+        <v>1.76181263475068</v>
       </c>
     </row>
     <row r="55">
@@ -2267,29 +2438,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99992000000000003</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F55">
-        <v>111410602.344644</v>
+        <v>54226841.128346302</v>
       </c>
       <c r="G55">
-        <v>0.0100115136059732</v>
+        <v>0.17840889976573701</v>
       </c>
       <c r="H55">
-        <v>203865758.284125</v>
+        <v>92068419.268647507</v>
       </c>
       <c r="I55">
-        <v>114584689.632661</v>
+        <v>56594261.600199401</v>
       </c>
       <c r="J55">
-        <v>1.8298595824253301</v>
+        <v>1.69783851231047</v>
       </c>
     </row>
     <row r="56">
@@ -2297,29 +2468,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F56">
-        <v>118065829.794512</v>
+        <v>58650318.416133203</v>
       </c>
       <c r="G56">
-        <v>0.0093081302932510896</v>
+        <v>0.16622361405303701</v>
       </c>
       <c r="H56">
-        <v>216620196.66298699</v>
+        <v>96502688.977203503</v>
       </c>
       <c r="I56">
-        <v>122295516.599574</v>
+        <v>59424162.8505973</v>
       </c>
       <c r="J56">
-        <v>1.83474081400185</v>
+        <v>1.64539070858067</v>
       </c>
     </row>
     <row r="57">
@@ -2327,29 +2498,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99994000000000005</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F57">
-        <v>126979947.49867401</v>
+        <v>59720678.709298</v>
       </c>
       <c r="G57">
-        <v>0.00855741371958239</v>
+        <v>0.15342902353981899</v>
       </c>
       <c r="H57">
-        <v>232340976.67346701</v>
+        <v>101799621.281004</v>
       </c>
       <c r="I57">
-        <v>132785434.14675</v>
+        <v>60006156.2020064</v>
       </c>
       <c r="J57">
-        <v>1.82974541453401</v>
+        <v>1.70459585324765</v>
       </c>
     </row>
     <row r="58">
@@ -2357,29 +2528,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99995000000000001</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F58">
-        <v>139278260.98121199</v>
+        <v>60815689.1847324</v>
       </c>
       <c r="G58">
-        <v>0.00774230431141617</v>
+        <v>0.140509124292653</v>
       </c>
       <c r="H58">
-        <v>252252085.17894301</v>
+        <v>108765198.79417101</v>
       </c>
       <c r="I58">
-        <v>147474528.973878</v>
+        <v>63760326.707608603</v>
       </c>
       <c r="J58">
-        <v>1.8111375271476899</v>
+        <v>1.78843979657598</v>
       </c>
     </row>
     <row r="59">
@@ -2387,29 +2558,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995999999999996</v>
+        <v>0.995</v>
       </c>
       <c r="F59">
-        <v>156713966.758533</v>
+        <v>68199337.725685701</v>
       </c>
       <c r="G59">
-        <v>0.0068370252286419804</v>
+        <v>0.12678091623587401</v>
       </c>
       <c r="H59">
-        <v>278446474.23006701</v>
+        <v>117766173.211483</v>
       </c>
       <c r="I59">
-        <v>168474411.746797</v>
+        <v>74728776.539661303</v>
       </c>
       <c r="J59">
-        <v>1.77678148278323</v>
+        <v>1.7267935017956799</v>
       </c>
     </row>
     <row r="60">
@@ -2417,29 +2588,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99997000000000003</v>
+        <v>0.996</v>
       </c>
       <c r="F60">
-        <v>181692628.33839199</v>
+        <v>79831349.530288607</v>
       </c>
       <c r="G60">
-        <v>0.0058028374133067898</v>
+        <v>0.11069109604299</v>
       </c>
       <c r="H60">
-        <v>315103828.39088398</v>
+        <v>128525522.379439</v>
       </c>
       <c r="I60">
-        <v>197856324.88513499</v>
+        <v>82925022.041691795</v>
       </c>
       <c r="J60">
-        <v>1.7342686451979901</v>
+        <v>1.60996304253475</v>
       </c>
     </row>
     <row r="61">
@@ -2447,29 +2618,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997999999999998</v>
+        <v>0.997</v>
       </c>
       <c r="F61">
-        <v>216019699.560947</v>
+        <v>86018694.5530954</v>
       </c>
       <c r="G61">
-        <v>0.00458828739194802</v>
+        <v>0.092836545815827301</v>
       </c>
       <c r="H61">
-        <v>373727580.14407998</v>
+        <v>143725689.15868801</v>
       </c>
       <c r="I61">
-        <v>245469517.763228</v>
+        <v>89112367.064499602</v>
       </c>
       <c r="J61">
-        <v>1.7300624938543501</v>
+        <v>1.67086573337814</v>
       </c>
     </row>
     <row r="62">
@@ -2477,29 +2648,599 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="D62"/>
       <c r="E62">
+        <v>0.998</v>
+      </c>
+      <c r="F62">
+        <v>92206039.575902</v>
+      </c>
+      <c r="G62">
+        <v>0.073649801037942095</v>
+      </c>
+      <c r="H62">
+        <v>171032350.205782</v>
+      </c>
+      <c r="I62">
+        <v>96262972.599495396</v>
+      </c>
+      <c r="J62">
+        <v>1.8548931392394501</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63">
+        <v>0.999</v>
+      </c>
+      <c r="F63">
+        <v>116234806.86451299</v>
+      </c>
+      <c r="G63">
+        <v>0.0529234625097528</v>
+      </c>
+      <c r="H63">
+        <v>245801727.81206799</v>
+      </c>
+      <c r="I63">
+        <v>124805603.511915</v>
+      </c>
+      <c r="J63">
+        <v>2.11469984286704</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F64">
+        <v>133376400.15931199</v>
+      </c>
+      <c r="G64">
+        <v>0.050236278519118098</v>
+      </c>
+      <c r="H64">
+        <v>259245741.62319401</v>
+      </c>
+      <c r="I64">
+        <v>141947196.80671</v>
+      </c>
+      <c r="J64">
+        <v>1.94371523982905</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F65">
+        <v>150517993.45411199</v>
+      </c>
+      <c r="G65">
+        <v>0.047180019632969299</v>
+      </c>
+      <c r="H65">
+        <v>273908059.72525197</v>
+      </c>
+      <c r="I65">
+        <v>159088790.10151699</v>
+      </c>
+      <c r="J65">
+        <v>1.8197695401032401</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F66">
+        <v>167659586.74891099</v>
+      </c>
+      <c r="G66">
+        <v>0.043754685851306201</v>
+      </c>
+      <c r="H66">
+        <v>290310812.52864099</v>
+      </c>
+      <c r="I66">
+        <v>176230383.39630699</v>
+      </c>
+      <c r="J66">
+        <v>1.7315491357104</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F67">
+        <v>184801180.04371101</v>
+      </c>
+      <c r="G67">
+        <v>0.039960277174128797</v>
+      </c>
+      <c r="H67">
+        <v>309324217.38402599</v>
+      </c>
+      <c r="I67">
+        <v>193371402.444653</v>
+      </c>
+      <c r="J67">
+        <v>1.6738216569334801</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" t="s">
+        <v>229</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F68">
+        <v>201897075.68690801</v>
+      </c>
+      <c r="G68">
+        <v>0.035796805965512601</v>
+      </c>
+      <c r="H68">
+        <v>332514780.37189502</v>
+      </c>
+      <c r="I68">
+        <v>210400861.29622301</v>
+      </c>
+      <c r="J68">
+        <v>1.6469519394502901</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F69">
+        <v>219846337.054988</v>
+      </c>
+      <c r="G69">
+        <v>0.031266674223174799</v>
+      </c>
+      <c r="H69">
+        <v>363043260.14080501</v>
+      </c>
+      <c r="I69">
+        <v>231834630.974949</v>
+      </c>
+      <c r="J69">
+        <v>1.6513500520593201</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" t="s">
+        <v>231</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F70">
+        <v>245561101.28470999</v>
+      </c>
+      <c r="G70">
+        <v>0.026275052923320399</v>
+      </c>
+      <c r="H70">
+        <v>406779469.86280602</v>
+      </c>
+      <c r="I70">
+        <v>264486950.55909199</v>
+      </c>
+      <c r="J70">
+        <v>1.6565305650391899</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F71">
+        <v>287391641.80028999</v>
+      </c>
+      <c r="G71">
+        <v>0.020580395958608898</v>
+      </c>
+      <c r="H71">
+        <v>477925729.51466399</v>
+      </c>
+      <c r="I71">
+        <v>325066114.76305902</v>
+      </c>
+      <c r="J71">
+        <v>1.6629771364289601</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" t="s">
+        <v>233</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F72">
+        <v>377265661.02985901</v>
+      </c>
+      <c r="G72">
+        <v>0.0135814116589519</v>
+      </c>
+      <c r="H72">
+        <v>630785344.26626503</v>
+      </c>
+      <c r="I72">
+        <v>385092028.55435801</v>
+      </c>
+      <c r="J72">
+        <v>1.6719924695620301</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F73">
+        <v>393316296.638403</v>
+      </c>
+      <c r="G73">
+        <v>0.012752271696539299</v>
+      </c>
+      <c r="H73">
+        <v>658084601.56745899</v>
+      </c>
+      <c r="I73">
+        <v>402449780.70043403</v>
+      </c>
+      <c r="J73">
+        <v>1.6731689156843501</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F74">
+        <v>412103901.88943499</v>
+      </c>
+      <c r="G74">
+        <v>0.011885758833898001</v>
+      </c>
+      <c r="H74">
+        <v>690038954.17565894</v>
+      </c>
+      <c r="I74">
+        <v>422967622.31367999</v>
+      </c>
+      <c r="J74">
+        <v>1.6744295577206001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F75">
+        <v>434536038.21323401</v>
+      </c>
+      <c r="G75">
+        <v>0.010975069096207501</v>
+      </c>
+      <c r="H75">
+        <v>728192001.58475101</v>
+      </c>
+      <c r="I75">
+        <v>447777034.71134901</v>
+      </c>
+      <c r="J75">
+        <v>1.67579196556171</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F76">
+        <v>462014431.99506497</v>
+      </c>
+      <c r="G76">
+        <v>0.0100109623212021</v>
+      </c>
+      <c r="H76">
+        <v>774927829.39672899</v>
+      </c>
+      <c r="I76">
+        <v>478685190.045546</v>
+      </c>
+      <c r="J76">
+        <v>1.6772805690299399</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F77">
+        <v>496849684.863006</v>
+      </c>
+      <c r="G77">
+        <v>0.0089803073321172606</v>
+      </c>
+      <c r="H77">
+        <v>834176357.26735401</v>
+      </c>
+      <c r="I77">
+        <v>518811131.12585098</v>
+      </c>
+      <c r="J77">
+        <v>1.6789310382623199</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F78">
+        <v>543204538.70141006</v>
+      </c>
+      <c r="G78">
+        <v>0.0078632573548018097</v>
+      </c>
+      <c r="H78">
+        <v>913017663.80228996</v>
+      </c>
+      <c r="I78">
+        <v>574164899.74552</v>
+      </c>
+      <c r="J78">
+        <v>1.68079903379482</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F79">
+        <v>609614187.14931798</v>
+      </c>
+      <c r="G79">
+        <v>0.0066270254203709003</v>
+      </c>
+      <c r="H79">
+        <v>1025968585.15373</v>
+      </c>
+      <c r="I79">
+        <v>658491127.48114395</v>
+      </c>
+      <c r="J79">
+        <v>1.6829801648012299</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F80">
+        <v>717643623.67232299</v>
+      </c>
+      <c r="G80">
+        <v>0.0052092310538020704</v>
+      </c>
+      <c r="H80">
+        <v>1209707313.99102</v>
+      </c>
+      <c r="I80">
+        <v>814939810.50755703</v>
+      </c>
+      <c r="J80">
+        <v>1.68566580136351</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F62">
-        <v>286630540.13132</v>
-      </c>
-      <c r="G62">
-        <v>0.0030814616272826102</v>
-      </c>
-      <c r="H62">
-        <v>501985642.52351099</v>
-      </c>
-      <c r="I62">
-        <v>501985642.52351302</v>
-      </c>
-      <c r="J62">
-        <v>1.75133341441399</v>
+      <c r="F81">
+        <v>949747716.41483903</v>
+      </c>
+      <c r="G81">
+        <v>0.00345458771208078</v>
+      </c>
+      <c r="H81">
+        <v>1604474817.47013</v>
+      </c>
+      <c r="I81">
+        <v>1604474817.4701099</v>
+      </c>
+      <c r="J81">
+        <v>1.68936949227611</v>
       </c>
     </row>
   </sheetData>
